--- a/dev/html/RFI Log_FY24 Theater Corrosion Control Prep Hangar, Kade 2025-10-29 11-34-33.xlsx
+++ b/dev/html/RFI Log_FY24 Theater Corrosion Control Prep Hangar, Kade 2025-10-29 11-34-33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A875B6D-9C41-4FBC-B607-172231E61663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA51C9-7E06-4E48-937A-0659260FEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15690" activeTab="1" xr2:uid="{31D61A1A-B293-4AB1-AE21-8A43F5A66E92}"/>
+    <workbookView xWindow="3375" yWindow="1500" windowWidth="22755" windowHeight="14520" activeTab="1" xr2:uid="{31D61A1A-B293-4AB1-AE21-8A43F5A66E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -3702,7 +3702,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FEC0F0-5D1D-404A-B2FA-42E3EED68875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +3746,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C84B41-D7E1-43F5-9577-8479EB0F7852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE9C83E-CFE6-4FAF-B76B-22BED86477AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +3834,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68542085-7838-4298-AEC7-2604F0B43951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3878,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2602EB7A-26F9-4A98-AE7F-586B2FE83717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,7 +3922,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B235291-2046-4BA1-851B-8E2302CC0B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,7 +3966,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10F1B80-EC9C-479E-AFAE-31F371A890B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4010,7 +4010,7 @@
         <xdr:cNvPr id="9" name="Freeform: Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FBACF1-BC38-4AD0-9455-EA733AA66D98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,7 +4118,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0928B180-6EF2-486D-A96F-5E7473C60747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4162,7 @@
         <xdr:cNvPr id="11" name="Freeform: Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76BE763-6D75-4AB4-8C23-994C63BD96A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4277,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3191F0FE-A70C-4928-A621-5EF24A63E86B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +4436,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDE7873-79E5-4864-A32D-CB665F29F3B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4518,7 +4518,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB704C0F-64AA-4D94-956A-97071A40009F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4601,7 +4601,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925031CC-57F3-494D-90D7-85A539BE71C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5271,16 +5271,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="72.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="72.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="12" width="30.7109375" style="1" customWidth="1"/>
